--- a/Documents/Foodies_SIQ.xlsx
+++ b/Documents/Foodies_SIQ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hossa\Documents\GitHub\Foodies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hossa\Documents\GitHub\Foodies\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="153">
   <si>
     <t>ID</t>
   </si>
@@ -413,9 +413,6 @@
     <t>Make it substring</t>
   </si>
   <si>
-    <t>Not-Approved / that feature will be displayed on user account page</t>
-  </si>
-  <si>
     <t xml:space="preserve">Add customer Answers and solutions , delete an empty row </t>
   </si>
   <si>
@@ -538,11 +535,6 @@
 Delete button</t>
   </si>
   <si>
-    <t>Name of restaurants 
-Location 
-Menu</t>
-  </si>
-  <si>
     <t>What if the admin tried to add restaurant already exist in the database?</t>
   </si>
   <si>
@@ -592,6 +584,42 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_027</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_028</t>
+  </si>
+  <si>
+    <t>How can I validate that the user already made an order ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- once the popup message appears to show restaurant phone number 
+2- there is a submit button to confirm the order for the user 
+3- the admin will receive the order then have to confirm it </t>
+  </si>
+  <si>
+    <t>Name of restaurants 
+Location 
+Menu
+phone number</t>
+  </si>
+  <si>
+    <t>Date of Question</t>
+  </si>
+  <si>
+    <t>Date of Answer</t>
+  </si>
+  <si>
+    <t>Not-Approved / that feature will be
+ displayed on user account page</t>
+  </si>
+  <si>
+    <t>Do you have any specific color for the web</t>
+  </si>
+  <si>
+    <t>29/4/2019</t>
   </si>
 </sst>
 </file>
@@ -772,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -813,6 +841,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
@@ -1107,10 +1138,12 @@
     <col min="3" max="3" width="72.53515625" style="12" customWidth="1"/>
     <col min="4" max="4" width="18.765625" customWidth="1"/>
     <col min="5" max="5" width="37" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.84375" style="12"/>
+    <col min="6" max="6" width="22.61328125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="19.84375" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="8.84375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="41.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -1121,13 +1154,19 @@
         <v>27</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>46</v>
       </c>
@@ -1141,7 +1180,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1158,7 +1197,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -1172,7 +1211,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -1189,7 +1228,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>85</v>
       </c>
@@ -1197,7 +1236,7 @@
         <v>1.2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>48</v>
@@ -1206,12 +1245,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="14">
         <v>1.3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>48</v>
@@ -1220,12 +1259,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="14">
         <v>1.3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>48</v>
@@ -1234,7 +1273,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D9" s="12"/>
     </row>
   </sheetData>
@@ -1244,11 +1283,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1256,15 +1295,15 @@
     <col min="1" max="1" width="20.84375" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.07421875" style="1" customWidth="1"/>
     <col min="3" max="3" width="60.07421875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.07421875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.07421875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3046875" style="1"/>
+    <col min="6" max="6" width="18.765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.3046875" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.69140625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="37.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="37.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1278,12 +1317,18 @@
         <v>76</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="34.85" customHeight="1" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="34.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>50</v>
@@ -1294,13 +1339,19 @@
       <c r="E2" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -1311,13 +1362,19 @@
       <c r="E3" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -1328,13 +1385,19 @@
       <c r="E4" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>53</v>
@@ -1345,13 +1408,19 @@
       <c r="E5" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>37</v>
@@ -1362,13 +1431,19 @@
       <c r="E6" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>56</v>
@@ -1379,13 +1454,19 @@
       <c r="E7" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>68</v>
@@ -1396,13 +1477,19 @@
       <c r="E8" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>57</v>
@@ -1413,13 +1500,19 @@
       <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -1430,13 +1523,19 @@
       <c r="E10" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="F10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>69</v>
@@ -1447,13 +1546,19 @@
       <c r="E11" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>70</v>
@@ -1464,30 +1569,42 @@
       <c r="E12" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>72</v>
@@ -1498,13 +1615,19 @@
       <c r="E14" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="F14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>74</v>
@@ -1515,13 +1638,19 @@
       <c r="E15" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="F15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -1532,13 +1661,19 @@
       <c r="E16" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>60</v>
@@ -1549,13 +1684,19 @@
       <c r="E17" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>23</v>
@@ -1563,14 +1704,20 @@
       <c r="D18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="E18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>24</v>
@@ -1581,132 +1728,220 @@
       <c r="E19" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="F19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="F21" s="15">
+        <v>43501</v>
+      </c>
+      <c r="G21" s="15">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="F22" s="15">
+        <v>43501</v>
+      </c>
+      <c r="G22" s="15">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="15">
+        <v>43501</v>
+      </c>
+      <c r="G23" s="15">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F24" s="15">
+        <v>43501</v>
+      </c>
+      <c r="G24" s="15">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="16.75" x14ac:dyDescent="0.4">
+      <c r="F25" s="15">
+        <v>43501</v>
+      </c>
+      <c r="G25" s="15">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="11" customFormat="1" ht="16.75" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="15">
+        <v>43501</v>
+      </c>
+      <c r="G26" s="15">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="B27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="E27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="15">
+        <v>43501</v>
+      </c>
+      <c r="G27" s="15">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="C28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1876,36 +2111,36 @@
     </row>
     <row r="15" spans="1:5" s="11" customFormat="1" ht="33.450000000000003" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>136</v>
-      </c>
       <c r="E15" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="11" customFormat="1" ht="33.450000000000003" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="D16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Foodies_SIQ.xlsx
+++ b/Documents/Foodies_SIQ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hossa\Documents\GitHub\Foodies\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iti\Documents\GitHub\Foodies\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25714" windowHeight="13731" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25710" windowHeight="13725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision_History" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="177">
   <si>
     <t>ID</t>
   </si>
@@ -621,12 +621,204 @@
   <si>
     <t>29/4/2019</t>
   </si>
+  <si>
+    <t>Foodies_SIQ_029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the main component 
+of User Account page </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wireframe link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1iuOV7VGOvl-UyZxjyO-HluDh0iEzAzGr/view?usp=sharing</t>
+    </r>
+  </si>
+  <si>
+    <t>Foodies_SIQ_030</t>
+  </si>
+  <si>
+    <t>What is the main component 
+of Foodies Offers page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wireframe link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1gsWuqykxf9sIFTrjRmh7oK8PQPnuC7sj/view?usp=sharing</t>
+    </r>
+  </si>
+  <si>
+    <t>Foodies_SIQ_031</t>
+  </si>
+  <si>
+    <t>What is the main component 
+of Foodies Menu page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wireframes link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1mFlo0tRyuSsPZtrmT5FiR-p1oy2uo8aM/view?usp=sharing</t>
+    </r>
+  </si>
+  <si>
+    <t>Foodies_SIQ_032</t>
+  </si>
+  <si>
+    <t>What is the main component 
+of Foodies registeration page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wireframes link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1Hzr_da9o8VwgI9GXJ_hq9qoAWlFp20-D/view?usp=sharing</t>
+    </r>
+  </si>
+  <si>
+    <t>Foodies_SIQ_033</t>
+  </si>
+  <si>
+    <t>What is the main component 
+of Foodies Home page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wireframes link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1_lH6wj0JQmPQdMx0iKAB28diIulHPQsS/view?usp=sharing</t>
+    </r>
+  </si>
+  <si>
+    <t>Foodies_SIQ_034</t>
+  </si>
+  <si>
+    <t>What is the main component 
+of Foodies Create Account page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wireframes link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1QqBLjckL380yHZQ7DbgMGJxgIjs_fNTK/view?usp=sharing</t>
+    </r>
+  </si>
+  <si>
+    <t>Foodies_SIQ_035</t>
+  </si>
+  <si>
+    <t>What is the main component 
+of Foodies Admin delete user page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wireframes link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1l0rqkxnki0UBwAqyxb-o4SdgGf2JqRGY/view?usp=sharing</t>
+    </r>
+  </si>
+  <si>
+    <t>Foodies_SIQ_036</t>
+  </si>
+  <si>
+    <t>What is the main component 
+of Foodies Add menu page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wireframes link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1rv9v7aWvDIU2neiLoeLXTBrUPpu9JAdJ/view?usp=sharing</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +853,28 @@
     <font>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -797,10 +1011,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -845,8 +1060,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1128,22 +1350,22 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.69140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="25.69140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="72.53515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="18.765625" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="72.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="37" style="12" customWidth="1"/>
-    <col min="6" max="6" width="22.61328125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19.84375" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="8.84375" style="12"/>
+    <col min="6" max="6" width="22.5703125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="41.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="41.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -1166,7 +1388,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>46</v>
       </c>
@@ -1180,7 +1402,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1197,7 +1419,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -1211,7 +1433,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -1228,7 +1450,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>85</v>
       </c>
@@ -1245,7 +1467,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="14">
         <v>1.3</v>
       </c>
@@ -1259,7 +1481,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="14">
         <v>1.3</v>
       </c>
@@ -1273,8 +1495,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D9" s="12"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1283,27 +1513,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.84375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.07421875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.07421875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.07421875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.07421875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.3046875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.69140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.3046875" style="1"/>
+    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="37.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1326,7 +1556,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="34.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>93</v>
       </c>
@@ -1346,7 +1576,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>89</v>
       </c>
@@ -1369,7 +1599,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>89</v>
       </c>
@@ -1392,7 +1622,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>89</v>
       </c>
@@ -1415,7 +1645,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
@@ -1438,7 +1668,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>89</v>
       </c>
@@ -1461,7 +1691,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>89</v>
       </c>
@@ -1484,7 +1714,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>89</v>
       </c>
@@ -1507,7 +1737,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>90</v>
       </c>
@@ -1530,7 +1760,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>90</v>
       </c>
@@ -1553,7 +1783,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>90</v>
       </c>
@@ -1576,7 +1806,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>90</v>
       </c>
@@ -1599,7 +1829,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>90</v>
       </c>
@@ -1622,7 +1852,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>90</v>
       </c>
@@ -1645,7 +1875,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>91</v>
       </c>
@@ -1668,7 +1898,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>92</v>
       </c>
@@ -1691,7 +1921,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>92</v>
       </c>
@@ -1714,7 +1944,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>110</v>
@@ -1735,7 +1965,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>113</v>
@@ -1756,7 +1986,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>114</v>
@@ -1777,7 +2007,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>115</v>
@@ -1798,7 +2028,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
         <v>116</v>
@@ -1819,7 +2049,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>90</v>
       </c>
@@ -1842,7 +2072,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
         <v>118</v>
@@ -1863,7 +2093,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="11" customFormat="1" ht="16.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -1886,7 +2116,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>90</v>
       </c>
@@ -1909,7 +2139,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>92</v>
       </c>
@@ -1923,7 +2153,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>144</v>
       </c>
@@ -1931,17 +2161,157 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B33" s="5"/>
+    <row r="30" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="16">
+        <v>43682</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="16">
+        <v>43682</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="16">
+        <v>43682</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="16">
+        <v>43682</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="16">
+        <v>43682</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="16">
+        <v>43682</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="16">
+        <v>43682</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="16">
+        <v>43682</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1953,21 +2323,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.3046875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="54.3046875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="59.3046875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="36.53515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19.84375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.84375" style="9"/>
+    <col min="1" max="1" width="27.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1981,7 +2351,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1992,7 +2362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="50.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2003,7 +2373,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="83.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="103.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -2011,7 +2381,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="66.900000000000006" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -2022,7 +2392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="50.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -2033,7 +2403,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -2041,12 +2411,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -2054,7 +2424,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="33.450000000000003" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -2065,7 +2435,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="33.450000000000003" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
@@ -2079,7 +2449,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -2090,7 +2460,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="50.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -2101,7 +2471,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
@@ -2109,7 +2479,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="11" customFormat="1" ht="33.450000000000003" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" s="11" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>131</v>
       </c>
@@ -2126,7 +2496,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="11" customFormat="1" ht="33.450000000000003" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" s="11" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>135</v>
       </c>

--- a/Documents/Foodies_SIQ.xlsx
+++ b/Documents/Foodies_SIQ.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="180">
   <si>
     <t>ID</t>
   </si>
@@ -812,6 +812,16 @@
       </rPr>
       <t>https://drive.google.com/file/d/1rv9v7aWvDIU2neiLoeLXTBrUPpu9JAdJ/view?usp=sharing</t>
     </r>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>Make that to fit the browser window size</t>
+  </si>
+  <si>
+    <t>That will be validated from 
+restaurant side</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1025,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1065,6 +1075,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1515,9 +1531,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,7 +1544,7 @@
     <col min="4" max="4" width="70.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="19" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.28515625" style="1"/>
   </cols>
@@ -1552,7 +1568,7 @@
       <c r="F1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="18" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1572,7 +1588,7 @@
       <c r="F2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1595,7 +1611,7 @@
       <c r="F3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1618,7 +1634,7 @@
       <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1641,7 +1657,7 @@
       <c r="F5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1664,7 +1680,7 @@
       <c r="F6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1687,7 +1703,7 @@
       <c r="F7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1710,7 +1726,7 @@
       <c r="F8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1733,7 +1749,7 @@
       <c r="F9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1756,7 +1772,7 @@
       <c r="F10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1779,7 +1795,7 @@
       <c r="F11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1802,7 +1818,7 @@
       <c r="F12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1825,7 +1841,7 @@
       <c r="F13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1848,7 +1864,7 @@
       <c r="F14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1871,7 +1887,7 @@
       <c r="F15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1894,7 +1910,7 @@
       <c r="F16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1917,7 +1933,7 @@
       <c r="F17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1940,7 +1956,7 @@
       <c r="F18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1961,7 +1977,7 @@
       <c r="F19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1982,7 +1998,7 @@
       <c r="F20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2003,7 +2019,7 @@
       <c r="F21" s="15">
         <v>43501</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="16">
         <v>43529</v>
       </c>
     </row>
@@ -2024,7 +2040,7 @@
       <c r="F22" s="15">
         <v>43501</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="16">
         <v>43529</v>
       </c>
     </row>
@@ -2045,7 +2061,7 @@
       <c r="F23" s="15">
         <v>43501</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="16">
         <v>43529</v>
       </c>
     </row>
@@ -2068,7 +2084,7 @@
       <c r="F24" s="15">
         <v>43501</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="16">
         <v>43529</v>
       </c>
     </row>
@@ -2089,7 +2105,7 @@
       <c r="F25" s="15">
         <v>43501</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="16">
         <v>43529</v>
       </c>
     </row>
@@ -2112,7 +2128,7 @@
       <c r="F26" s="15">
         <v>43501</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="16">
         <v>43529</v>
       </c>
     </row>
@@ -2135,7 +2151,7 @@
       <c r="F27" s="15">
         <v>43501</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="16">
         <v>43529</v>
       </c>
     </row>
@@ -2152,6 +2168,15 @@
       <c r="D28" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="E28" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="16">
+        <v>43682</v>
+      </c>
+      <c r="G28" s="16">
+        <v>43743</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -2159,6 +2184,15 @@
       </c>
       <c r="C29" s="2" t="s">
         <v>151</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="16">
+        <v>43682</v>
+      </c>
+      <c r="G29" s="16">
+        <v>43743</v>
       </c>
     </row>
     <row r="30" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2172,11 +2206,15 @@
       <c r="D30" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F30" s="16">
         <v>43682</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="16">
+        <v>43743</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
@@ -2191,11 +2229,15 @@
       <c r="D31" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F31" s="16">
         <v>43682</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="16">
+        <v>43743</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
@@ -2210,11 +2252,15 @@
       <c r="D32" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="F32" s="16">
         <v>43682</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="16">
+        <v>43743</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
@@ -2229,11 +2275,15 @@
       <c r="D33" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F33" s="16">
         <v>43682</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="16">
+        <v>43743</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
@@ -2248,11 +2298,15 @@
       <c r="D34" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F34" s="16">
         <v>43682</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="16">
+        <v>43743</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
@@ -2267,11 +2321,15 @@
       <c r="D35" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F35" s="16">
         <v>43682</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="16">
+        <v>43743</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
@@ -2286,11 +2344,15 @@
       <c r="D36" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F36" s="16">
         <v>43682</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="16">
+        <v>43743</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
@@ -2305,11 +2367,15 @@
       <c r="D37" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="F37" s="16">
         <v>43682</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="16">
+        <v>43743</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>

--- a/Documents/Foodies_SIQ.xlsx
+++ b/Documents/Foodies_SIQ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iti\Documents\GitHub\Foodies\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hossa\Documents\GitHub\Foodies\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25710" windowHeight="13725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25714" windowHeight="13723" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision_History" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="182">
   <si>
     <t>ID</t>
   </si>
@@ -823,11 +823,17 @@
     <t>That will be validated from 
 restaurant side</t>
   </si>
+  <si>
+    <t>Foodies_SIQ_037</t>
+  </si>
+  <si>
+    <t>Shall we include SQL injection in the scope ?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1369,19 +1375,19 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="72.5703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.69140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="25.69140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="72.53515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.69140625" customWidth="1"/>
     <col min="5" max="5" width="37" style="12" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="12"/>
+    <col min="6" max="6" width="22.53515625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="19.84375" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="8.84375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="41.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="41.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -1404,7 +1410,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>46</v>
       </c>
@@ -1418,7 +1424,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1435,7 +1441,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -1449,7 +1455,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>85</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="14">
         <v>1.3</v>
       </c>
@@ -1497,7 +1503,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="14">
         <v>1.3</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="14">
         <v>1.4</v>
       </c>
@@ -1529,27 +1535,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="20.84375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.15234375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.15234375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.15234375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.15234375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.69140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.3046875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12.69140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1572,7 +1578,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>93</v>
       </c>
@@ -1592,7 +1598,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>89</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>89</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>89</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>89</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>89</v>
       </c>
@@ -1730,7 +1736,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>89</v>
       </c>
@@ -1753,21 +1759,18 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>46</v>
@@ -1776,18 +1779,18 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>69</v>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>86</v>
@@ -1799,18 +1802,18 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>70</v>
+      <c r="C12" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>86</v>
@@ -1822,7 +1825,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>90</v>
       </c>
@@ -1830,10 +1833,10 @@
         <v>104</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>86</v>
@@ -1845,7 +1848,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>90</v>
       </c>
@@ -1853,10 +1856,10 @@
         <v>105</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>86</v>
@@ -1868,21 +1871,21 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>74</v>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>46</v>
@@ -1891,21 +1894,21 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>46</v>
@@ -1914,18 +1917,18 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>86</v>
@@ -1937,7 +1940,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>92</v>
       </c>
@@ -1945,13 +1948,13 @@
         <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>150</v>
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>46</v>
@@ -1960,19 +1963,21 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="B19" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>46</v>
@@ -1981,16 +1986,16 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>86</v>
@@ -2002,37 +2007,37 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="15">
-        <v>43501</v>
-      </c>
-      <c r="G21" s="16">
-        <v>43529</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>86</v>
@@ -2044,16 +2049,16 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>86</v>
@@ -2065,18 +2070,16 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>90</v>
-      </c>
+    <row r="24" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>86</v>
@@ -2088,16 +2091,18 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="B25" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>86</v>
@@ -2109,18 +2114,16 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>89</v>
-      </c>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>134</v>
+      <c r="C26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>86</v>
@@ -2132,18 +2135,18 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="11" customFormat="1" ht="16.75" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>86</v>
@@ -2155,38 +2158,44 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F28" s="16">
-        <v>43682</v>
+      <c r="C28" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="15">
+        <v>43501</v>
       </c>
       <c r="G28" s="16">
-        <v>43743</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>177</v>
+      <c r="C29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="F29" s="16">
         <v>43682</v>
@@ -2195,19 +2204,15 @@
         <v>43743</v>
       </c>
     </row>
-    <row r="30" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B30" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="F30" s="16">
         <v>43682</v>
@@ -2215,19 +2220,17 @@
       <c r="G30" s="16">
         <v>43743</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
         <v>156</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>86</v>
@@ -2241,19 +2244,19 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
         <v>159</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="F32" s="16">
         <v>43682</v>
@@ -2264,19 +2267,19 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="F33" s="16">
         <v>43682</v>
@@ -2287,16 +2290,16 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
         <v>165</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>86</v>
@@ -2310,16 +2313,16 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
         <v>168</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>86</v>
@@ -2333,16 +2336,16 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
         <v>171</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>86</v>
@@ -2356,19 +2359,19 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="F37" s="16">
         <v>43682</v>
@@ -2378,6 +2381,29 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="16">
+        <v>43682</v>
+      </c>
+      <c r="G38" s="16">
+        <v>43743</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2393,17 +2419,17 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="59.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="27.3046875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="54.3046875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="59.3046875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="36.53515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.84375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.84375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="41.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -2417,7 +2443,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -2428,7 +2454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="50.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2439,7 +2465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="103.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="83.6" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -2447,7 +2473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="66.900000000000006" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -2458,7 +2484,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="50.15" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -2469,7 +2495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -2477,12 +2503,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -2490,7 +2516,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="33.450000000000003" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -2501,7 +2527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="33.450000000000003" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
@@ -2515,7 +2541,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -2526,7 +2552,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="50.15" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -2537,7 +2563,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
@@ -2545,7 +2571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="11" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="11" customFormat="1" ht="33.450000000000003" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>131</v>
       </c>
@@ -2562,7 +2588,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="11" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="11" customFormat="1" ht="33.450000000000003" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>135</v>
       </c>

--- a/Documents/Foodies_SIQ.xlsx
+++ b/Documents/Foodies_SIQ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hossa\Documents\GitHub\Foodies\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iti\Documents\GitHub\Foodies\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25714" windowHeight="13723" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25710" windowHeight="13725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision_History" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="232">
   <si>
     <t>ID</t>
   </si>
@@ -829,11 +829,303 @@
   <si>
     <t>Shall we include SQL injection in the scope ?</t>
   </si>
+  <si>
+    <t>Mariam Nesim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I validate that the user already
+ made an order ? And get the free one </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1- once the popup message appears to show restaurant phone number 
+2- there is a submit button to confirm the order for the user 
+3- after 5 orders there is a popup message says "congratulations you have one free order"
+Wireframe link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1KzwfpeAiTzIihK0yYsuOOpSJByjrY4Y7/view?usp=sharing</t>
+    </r>
+  </si>
+  <si>
+    <t>Foodies_SIQ_038</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is the functionality of cancel button in the Signup page?  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if the user decide he won't to create
+ new account this button will redirect 
+him/her to the login page.   
+WireFrame link: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://drive.google.com/open?id=1Vc1-xMd-m9OSbKevYV7fuXRPwz3Hdwq2</t>
+    </r>
+  </si>
+  <si>
+    <t>Foodies_SIQ_040</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wireframe link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1Ad3UcZ4IVkR51cSXja-_AtZdVZn5hfbi/view?usp=sharing</t>
+    </r>
+  </si>
+  <si>
+    <t>Foodies_SIQ_041</t>
+  </si>
+  <si>
+    <t>What is the main component 
+of Foodies Offers and poromotions page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wireframe link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1nRW_LXT39mLwMyRpxR8DTsDkPn8gCB5k/view?usp=sharing</t>
+    </r>
+  </si>
+  <si>
+    <t>Foodies_SIQ_042</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wireframes link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/11mGrtQi1pEpCFjOHpRDiLSWV74wZK8ZF/view?usp=sharing</t>
+    </r>
+  </si>
+  <si>
+    <t>Foodies_SIQ_043</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_044</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wireframes link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1l0rqkxnki0UBwAqyxb-o4SdgGf2JqRGY/view?usp=sharing
+-- https://drive.google.com/file/d/13-tdYtyR8EnBL9Zv4n6WymFsnc6-DKmm/view?usp=sharing</t>
+    </r>
+  </si>
+  <si>
+    <t>Foodies_SIQ_045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is the functionality of cancel button in the  Admin delete user page?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">this clear the search results if the admin decide not to delete this user </t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the main component 
+of Foodies Admin Add resturant menu page? </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* All fields are mandatory except item and promotion fields 
+wireframes link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1KJ6SFEyINrwY-_QW2-WvLV2VjB7wz6gZ/view?usp=sharing</t>
+    </r>
+  </si>
+  <si>
+    <t>Foodies_SIQ_047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is the functionality of cancel button in the  Add resturant menu page? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if the admin decide not to add resturant menu this button will redirect him/her to his/her account page </t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_048</t>
+  </si>
+  <si>
+    <t>What is the main component 
+of Foodies Login page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wireframes link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/15CgNP_MzdY5Y6-WhdA4J3xNbRFctrsil/view?usp=sharing</t>
+    </r>
+  </si>
+  <si>
+    <t>Foodies_SIQ_049</t>
+  </si>
+  <si>
+    <t>What is the main component 
+of Foodies Menu and set order page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wireframes link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1KzwfpeAiTzIihK0yYsuOOpSJByjrY4Y7/view?usp=sharing</t>
+    </r>
+  </si>
+  <si>
+    <t>Foodies_SIQ_050</t>
+  </si>
+  <si>
+    <t>how can I calculate the loyalty points ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">every one order the loyalty points increase by one </t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_051</t>
+  </si>
+  <si>
+    <t>after the user order five orders what about the loyalty points  if he/she took the free one?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the loyalty points decreases untill reaches zero, and the free order digit increases with 1 .</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_052</t>
+  </si>
+  <si>
+    <t>what is the maximum number of loyalty points the user can get ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 points 
+</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_053</t>
+  </si>
+  <si>
+    <t>are there is a logout functionality in the system ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the system should has a logout function in the navigation bar and it should redirect him/her to the login page  </t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_054</t>
+  </si>
+  <si>
+    <t>what is the locations of the resturants the user can search about it ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the system shall hold 3 locations only (Alex, Cairo, Giza)
+the user shall choose only one of them when submitting his/her registeration form </t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_055</t>
+  </si>
+  <si>
+    <t>what is the locations of the resturants the admin can add it ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the system shall hold 3 locations only (Alex, Cairo, Giza)
+the Admin shall choose only one of them when submitting the resturant  form </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1031,7 +1323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1087,6 +1379,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1369,25 +1664,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.69140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="25.69140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="72.53515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="18.69140625" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="72.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="37" style="12" customWidth="1"/>
-    <col min="6" max="6" width="22.53515625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19.84375" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="8.84375" style="12"/>
+    <col min="6" max="6" width="22.5703125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="41.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="41.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -1410,7 +1705,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>46</v>
       </c>
@@ -1424,7 +1719,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1441,7 +1736,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -1455,7 +1750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -1472,7 +1767,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>85</v>
       </c>
@@ -1489,7 +1784,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="14">
         <v>1.3</v>
       </c>
@@ -1503,7 +1798,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="14">
         <v>1.3</v>
       </c>
@@ -1517,7 +1812,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="14">
         <v>1.4</v>
       </c>
@@ -1526,6 +1821,20 @@
       </c>
       <c r="D9" s="12" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1535,27 +1844,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.84375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.15234375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.15234375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.15234375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.15234375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.69140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.3046875" style="19" customWidth="1"/>
-    <col min="8" max="8" width="12.69140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.3046875" style="1"/>
+    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1578,7 +1887,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>93</v>
       </c>
@@ -1598,7 +1907,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>89</v>
       </c>
@@ -1621,7 +1930,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>89</v>
       </c>
@@ -1644,7 +1953,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>89</v>
       </c>
@@ -1667,7 +1976,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
@@ -1690,7 +1999,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>89</v>
       </c>
@@ -1713,7 +2022,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>89</v>
       </c>
@@ -1736,7 +2045,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>89</v>
       </c>
@@ -1759,7 +2068,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>89</v>
       </c>
@@ -1779,7 +2088,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>90</v>
       </c>
@@ -1802,7 +2111,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>90</v>
       </c>
@@ -1825,7 +2134,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>90</v>
       </c>
@@ -1848,7 +2157,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>90</v>
       </c>
@@ -1871,7 +2180,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>90</v>
       </c>
@@ -1894,7 +2203,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>90</v>
       </c>
@@ -1917,7 +2226,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>91</v>
       </c>
@@ -1940,7 +2249,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>92</v>
       </c>
@@ -1963,7 +2272,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>92</v>
       </c>
@@ -1986,7 +2295,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>113</v>
@@ -2007,7 +2316,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>114</v>
@@ -2028,7 +2337,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>115</v>
@@ -2049,7 +2358,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
         <v>116</v>
@@ -2070,7 +2379,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
         <v>117</v>
@@ -2091,7 +2400,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>90</v>
       </c>
@@ -2114,7 +2423,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
         <v>131</v>
@@ -2135,7 +2444,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="11" customFormat="1" ht="16.75" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>89</v>
       </c>
@@ -2158,7 +2467,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>90</v>
       </c>
@@ -2181,7 +2490,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>92</v>
       </c>
@@ -2204,7 +2513,7 @@
         <v>43743</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>153</v>
       </c>
@@ -2221,7 +2530,7 @@
         <v>43743</v>
       </c>
     </row>
-    <row r="31" spans="1:9" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
         <v>156</v>
@@ -2244,7 +2553,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
         <v>159</v>
@@ -2267,7 +2576,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
         <v>162</v>
@@ -2290,7 +2599,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
         <v>165</v>
@@ -2313,7 +2622,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
         <v>168</v>
@@ -2336,7 +2645,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
         <v>171</v>
@@ -2359,7 +2668,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
         <v>174</v>
@@ -2382,7 +2691,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
         <v>180</v>
@@ -2404,6 +2713,343 @@
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="16">
+        <v>43804</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" s="16">
+        <v>43804</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="16">
+        <v>43804</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="16">
+        <v>43804</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="16">
+        <v>43804</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="16">
+        <v>43804</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="16">
+        <v>43804</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="16">
+        <v>43804</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="16">
+        <v>43804</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="16">
+        <v>43804</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="16">
+        <v>43804</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="16">
+        <v>43804</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="16">
+        <v>43804</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="16">
+        <v>43804</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="16">
+        <v>43804</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="16">
+        <v>43804</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="16">
+        <v>43804</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="16">
+        <v>43804</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2419,17 +3065,17 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.3046875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="54.3046875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="59.3046875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="36.53515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19.84375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.84375" style="9"/>
+    <col min="1" max="1" width="27.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="41.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -2443,7 +3089,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -2454,7 +3100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="50.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2465,7 +3111,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="83.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="103.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -2473,7 +3119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="66.900000000000006" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -2484,7 +3130,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="50.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -2495,7 +3141,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -2503,12 +3149,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -2516,7 +3162,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="33.450000000000003" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -2527,7 +3173,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="33.450000000000003" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
@@ -2541,7 +3187,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -2552,7 +3198,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="50.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -2563,7 +3209,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
@@ -2571,7 +3217,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="11" customFormat="1" ht="33.450000000000003" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" s="11" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>131</v>
       </c>
@@ -2588,7 +3234,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="11" customFormat="1" ht="33.450000000000003" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" s="11" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>135</v>
       </c>

--- a/Documents/Foodies_SIQ.xlsx
+++ b/Documents/Foodies_SIQ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25710" windowHeight="13725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25710" windowHeight="13725"/>
   </bookViews>
   <sheets>
     <sheet name="Revision_History" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="245">
   <si>
     <t>ID</t>
   </si>
@@ -1120,6 +1120,46 @@
   <si>
     <t xml:space="preserve">the system shall hold 3 locations only (Alex, Cairo, Giza)
 the Admin shall choose only one of them when submitting the resturant  form </t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_056</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_057</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_058</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_059</t>
+  </si>
+  <si>
+    <t>13/5/2019</t>
+  </si>
+  <si>
+    <t>are the admin able to make order?</t>
+  </si>
+  <si>
+    <t>No the user only is able to make order</t>
+  </si>
+  <si>
+    <t>Each order will increase the Loyalty points by one but what 
+if this order is free one, what will happen to the loyalty points?</t>
+  </si>
+  <si>
+    <t>the loyalty points should't increase or decrease.</t>
+  </si>
+  <si>
+    <t>what will happen when the Admin delete user ?</t>
+  </si>
+  <si>
+    <t>the system should display popup message says "user deleted successfully"</t>
+  </si>
+  <si>
+    <t>what will happen when the Admin add restuarant?</t>
+  </si>
+  <si>
+    <t>the system should display popup message says "restaurant added successfully"</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1382,6 +1422,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1664,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1677,7 +1723,7 @@
     <col min="3" max="3" width="72.5703125" style="12" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="37" style="12" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="21" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="12" customWidth="1"/>
     <col min="8" max="16384" width="8.85546875" style="12"/>
   </cols>
@@ -1698,7 +1744,7 @@
       <c r="E1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="18" t="s">
         <v>148</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -1835,6 +1881,23 @@
       </c>
       <c r="E10" s="12" t="s">
         <v>182</v>
+      </c>
+      <c r="F10" s="22">
+        <v>43804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -1844,11 +1907,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3050,6 +3113,62 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>236</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Foodies_SIQ.xlsx
+++ b/Documents/Foodies_SIQ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25710" windowHeight="13725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25710" windowHeight="13725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision_History" sheetId="3" r:id="rId1"/>
@@ -1712,7 +1712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1909,9 +1909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Foodies_SIQ.xlsx
+++ b/Documents/Foodies_SIQ.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="249">
   <si>
     <t>ID</t>
   </si>
@@ -1160,6 +1160,20 @@
   </si>
   <si>
     <t>the system should display popup message says "restaurant added successfully"</t>
+  </si>
+  <si>
+    <t>descope</t>
+  </si>
+  <si>
+    <t>14/5/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add customer Answers and solutions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loyalty points it should not decrease only increase and accumulate 
+after reaching 5 points the free order will  increase by one the next 5 which will be 10 points will increase another order 
+</t>
   </si>
 </sst>
 </file>
@@ -1710,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1885,6 +1899,9 @@
       <c r="F10" s="22">
         <v>43804</v>
       </c>
+      <c r="G10" s="12" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
@@ -1898,6 +1915,26 @@
       </c>
       <c r="F11" s="21" t="s">
         <v>236</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -1909,9 +1946,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,10 +2827,15 @@
       <c r="D39" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="E39" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F39" s="16">
         <v>43804</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="19" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
@@ -2805,10 +2847,15 @@
       <c r="D40" s="2" t="s">
         <v>188</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F40" s="16">
         <v>43804</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="19" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="41" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
@@ -2821,11 +2868,15 @@
       <c r="D41" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F41" s="16">
         <v>43804</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
@@ -2840,11 +2891,15 @@
       <c r="D42" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F42" s="16">
         <v>43804</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
@@ -2859,11 +2914,15 @@
       <c r="D43" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F43" s="16">
         <v>43804</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
@@ -2878,11 +2937,15 @@
       <c r="D44" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F44" s="16">
         <v>43804</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
@@ -2897,11 +2960,15 @@
       <c r="D45" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F45" s="16">
         <v>43804</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
@@ -2916,11 +2983,15 @@
       <c r="D46" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F46" s="16">
         <v>43804</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
@@ -2935,11 +3006,15 @@
       <c r="D47" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F47" s="16">
         <v>43804</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="G47" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
@@ -2954,11 +3029,15 @@
       <c r="D48" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F48" s="16">
         <v>43804</v>
       </c>
-      <c r="G48" s="1"/>
+      <c r="G48" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
@@ -2973,11 +3052,15 @@
       <c r="D49" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F49" s="16">
         <v>43804</v>
       </c>
-      <c r="G49" s="1"/>
+      <c r="G49" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
@@ -2992,11 +3075,15 @@
       <c r="D50" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F50" s="16">
         <v>43804</v>
       </c>
-      <c r="G50" s="1"/>
+      <c r="G50" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
@@ -3011,15 +3098,19 @@
       <c r="D51" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F51" s="16">
         <v>43804</v>
       </c>
-      <c r="G51" s="1"/>
+      <c r="G51" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="5" t="s">
         <v>217</v>
@@ -3030,11 +3121,15 @@
       <c r="D52" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E52" s="1"/>
+      <c r="E52" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="F52" s="16">
         <v>43804</v>
       </c>
-      <c r="G52" s="1"/>
+      <c r="G52" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
@@ -3049,11 +3144,15 @@
       <c r="D53" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F53" s="16">
         <v>43804</v>
       </c>
-      <c r="G53" s="1"/>
+      <c r="G53" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
@@ -3068,11 +3167,15 @@
       <c r="D54" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F54" s="16">
         <v>43804</v>
       </c>
-      <c r="G54" s="1"/>
+      <c r="G54" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
@@ -3087,11 +3190,15 @@
       <c r="D55" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F55" s="16">
         <v>43804</v>
       </c>
-      <c r="G55" s="1"/>
+      <c r="G55" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
@@ -3106,11 +3213,15 @@
       <c r="D56" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F56" s="16">
         <v>43804</v>
       </c>
-      <c r="G56" s="1"/>
+      <c r="G56" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
@@ -3124,8 +3235,14 @@
       <c r="D57" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="E57" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="F57" s="16" t="s">
         <v>236</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3138,8 +3255,14 @@
       <c r="D58" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="E58" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F58" s="16" t="s">
         <v>236</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3152,8 +3275,14 @@
       <c r="D59" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="E59" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F59" s="16" t="s">
         <v>236</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3166,8 +3295,14 @@
       <c r="D60" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="E60" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F60" s="16" t="s">
         <v>236</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Foodies_SIQ.xlsx
+++ b/Documents/Foodies_SIQ.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="255">
   <si>
     <t>ID</t>
   </si>
@@ -1175,12 +1175,46 @@
 after reaching 5 points the free order will  increase by one the next 5 which will be 10 points will increase another order 
 </t>
   </si>
+  <si>
+    <t>Foodies_SIQ_060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is the functionality of cancel button in the make order
+ pop up message?  </t>
+  </si>
+  <si>
+    <t>the order will be canceled.</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_061</t>
+  </si>
+  <si>
+    <t>What is the main component 
+of Foodies Admin account page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wireframes link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://drive.google.com/open?id=1cU07_UcnW5uXO4qcgZ_slIvm_Xl2uH5H</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1237,6 +1271,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1944,11 +1986,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3304,6 +3346,49 @@
       <c r="G60" s="19" t="s">
         <v>246</v>
       </c>
+    </row>
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
